--- a/ED50/Past_all_TPs_Genets_ED50.xlsx
+++ b/ED50/Past_all_TPs_Genets_ED50.xlsx
@@ -1,101 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2917054de0bc48a0/Documents/Barshis_Lab/2021-June_Mote/ED50/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_0F62FDCE8F79A8D366075C52F3EF2AB274C6C11A" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9E0341DD-6451-4EDD-A624-48CFB0CF9023}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
-  <si>
-    <t>Genotype</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T5</t>
-  </si>
-  <si>
-    <t>avgfit</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>offshore</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>inshore</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,14 +63,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -197,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,404 +350,461 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Genotype</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>T4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>T5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>avgfit</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>offshore</t>
+        </is>
       </c>
       <c r="C2">
-        <v>36.021527404183729</v>
+        <v>37.51959747236421</v>
       </c>
       <c r="D2">
-        <v>35.939713944987759</v>
+        <v>36.02881532838155</v>
       </c>
       <c r="E2">
-        <v>36.319400220734977</v>
+        <v>36.8245007229171</v>
       </c>
       <c r="F2">
-        <v>37.305545414477422</v>
+        <v>36.31377076619395</v>
       </c>
       <c r="G2">
-        <v>34.775531040211703</v>
+        <v>35.36293625201896</v>
       </c>
       <c r="H2">
-        <v>36.072343604919119</v>
+        <v>36.40992410837515</v>
       </c>
       <c r="I2">
-        <v>34.775531040211703</v>
+        <v>35.36293625201896</v>
       </c>
       <c r="J2">
-        <v>37.305545414477422</v>
+        <v>37.51959747236421</v>
       </c>
       <c r="K2">
-        <v>2.530014374265718</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
+        <v>2.156661220345256</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>offshore</t>
+        </is>
       </c>
       <c r="C3">
-        <v>36.754053518232723</v>
+        <v>37.10102470483923</v>
       </c>
       <c r="D3">
-        <v>37.356009111815538</v>
+        <v>37.10502024056419</v>
       </c>
       <c r="E3">
-        <v>37.731578445040583</v>
+        <v>36.99246579961032</v>
       </c>
       <c r="F3">
-        <v>38.102644476659243</v>
+        <v>37.23380220339158</v>
       </c>
       <c r="G3">
-        <v>35.343110400689483</v>
+        <v>36.54475759690386</v>
       </c>
       <c r="H3">
-        <v>37.057479190487513</v>
+        <v>36.99541410906183</v>
       </c>
       <c r="I3">
-        <v>35.343110400689483</v>
+        <v>36.54475759690386</v>
       </c>
       <c r="J3">
-        <v>38.102644476659243</v>
+        <v>37.23380220339158</v>
       </c>
       <c r="K3">
-        <v>2.759534075969754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
+        <v>0.6890446064877196</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>offshore</t>
+        </is>
       </c>
       <c r="C4">
-        <v>36.933613362112091</v>
+        <v>36.93361336211209</v>
       </c>
       <c r="D4">
-        <v>36.330809521226811</v>
+        <v>36.33080952122681</v>
       </c>
       <c r="E4">
-        <v>36.714031830745178</v>
+        <v>36.71403183074518</v>
       </c>
       <c r="F4">
-        <v>36.490942355342263</v>
+        <v>36.49094235534226</v>
       </c>
       <c r="G4">
         <v>35.00595596786944</v>
       </c>
       <c r="H4">
-        <v>36.295070607459152</v>
+        <v>36.29507060745915</v>
       </c>
       <c r="I4">
         <v>35.00595596786944</v>
       </c>
       <c r="J4">
-        <v>36.933613362112091</v>
+        <v>36.93361336211209</v>
       </c>
       <c r="K4">
-        <v>1.9276573942426509</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
+        <v>1.927657394242651</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>offshore</t>
+        </is>
       </c>
       <c r="C5">
-        <v>37.097233188710653</v>
+        <v>36.02152740418373</v>
       </c>
       <c r="D5">
-        <v>36.131352592584648</v>
+        <v>35.93971394498776</v>
       </c>
       <c r="E5">
-        <v>37.096587868066933</v>
+        <v>36.31940022073498</v>
       </c>
       <c r="F5">
-        <v>37.501064644025412</v>
+        <v>37.30554541447742</v>
       </c>
       <c r="G5">
-        <v>36.528483004374323</v>
+        <v>34.7755310402117</v>
       </c>
       <c r="H5">
-        <v>36.870944259552388</v>
+        <v>36.07234360491912</v>
       </c>
       <c r="I5">
-        <v>36.131352592584648</v>
+        <v>34.7755310402117</v>
       </c>
       <c r="J5">
-        <v>37.501064644025412</v>
+        <v>37.30554541447742</v>
       </c>
       <c r="K5">
-        <v>1.3697120514407639</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+        <v>2.530014374265718</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>offshore</t>
+        </is>
       </c>
       <c r="C6">
-        <v>37.101024704839233</v>
+        <v>37.09723318871065</v>
       </c>
       <c r="D6">
-        <v>37.105020240564187</v>
+        <v>36.13135259258465</v>
       </c>
       <c r="E6">
-        <v>36.992465799610322</v>
+        <v>37.09658786806693</v>
       </c>
       <c r="F6">
-        <v>37.233802203391583</v>
+        <v>37.50106464402541</v>
       </c>
       <c r="G6">
-        <v>36.544757596903857</v>
+        <v>36.52848300437432</v>
       </c>
       <c r="H6">
-        <v>36.995414109061826</v>
+        <v>36.87094425955239</v>
       </c>
       <c r="I6">
-        <v>36.544757596903857</v>
+        <v>36.13135259258465</v>
       </c>
       <c r="J6">
-        <v>37.233802203391583</v>
+        <v>37.50106464402541</v>
       </c>
       <c r="K6">
-        <v>0.68904460648771959</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+        <v>1.369712051440764</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>inshore</t>
+        </is>
       </c>
       <c r="C7">
-        <v>37.519597472364211</v>
+        <v>36.75405351823272</v>
       </c>
       <c r="D7">
-        <v>36.028815328381548</v>
+        <v>37.35600911181554</v>
       </c>
       <c r="E7">
-        <v>36.824500722917101</v>
+        <v>37.73157844504058</v>
       </c>
       <c r="F7">
-        <v>36.313770766193947</v>
+        <v>38.10264447665924</v>
       </c>
       <c r="G7">
-        <v>35.362936252018962</v>
+        <v>35.34311040068948</v>
       </c>
       <c r="H7">
-        <v>36.409924108375151</v>
+        <v>37.05747919048751</v>
       </c>
       <c r="I7">
-        <v>35.362936252018962</v>
+        <v>35.34311040068948</v>
       </c>
       <c r="J7">
-        <v>37.519597472364211</v>
+        <v>38.10264447665924</v>
       </c>
       <c r="K7">
-        <v>2.156661220345256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
+        <v>2.759534075969754</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>inshore</t>
+        </is>
       </c>
       <c r="C8">
-        <v>37.792918539608984</v>
+        <v>38.47783479574218</v>
       </c>
       <c r="D8">
-        <v>36.667204281443162</v>
+        <v>36.6338992095369</v>
       </c>
       <c r="E8">
-        <v>37.348500323716912</v>
+        <v>37.60255975394837</v>
       </c>
       <c r="F8">
-        <v>37.295790724785697</v>
+        <v>38.72346964441208</v>
       </c>
       <c r="G8">
+        <v>35.98024996547389</v>
+      </c>
+      <c r="H8">
+        <v>37.48360267382268</v>
+      </c>
+      <c r="I8">
+        <v>35.98024996547389</v>
+      </c>
+      <c r="J8">
+        <v>38.72346964441208</v>
+      </c>
+      <c r="K8">
+        <v>2.743219678938189</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>inshore</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>38.97014994921455</v>
+      </c>
+      <c r="D9">
+        <v>37.04835201362387</v>
+      </c>
+      <c r="E9">
+        <v>37.71129483450343</v>
+      </c>
+      <c r="F9">
+        <v>38.01063106785098</v>
+      </c>
+      <c r="G9">
+        <v>36.32720019941365</v>
+      </c>
+      <c r="H9">
+        <v>37.6135256129213</v>
+      </c>
+      <c r="I9">
+        <v>36.32720019941365</v>
+      </c>
+      <c r="J9">
+        <v>38.97014994921455</v>
+      </c>
+      <c r="K9">
+        <v>2.642949749800899</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>inshore</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>38.04715366316368</v>
+      </c>
+      <c r="D10">
+        <v>37.22846114206378</v>
+      </c>
+      <c r="E10">
+        <v>37.78005458997849</v>
+      </c>
+      <c r="F10">
+        <v>37.69645917411935</v>
+      </c>
+      <c r="G10">
+        <v>36.6499249367125</v>
+      </c>
+      <c r="H10">
+        <v>37.48041070120756</v>
+      </c>
+      <c r="I10">
+        <v>36.6499249367125</v>
+      </c>
+      <c r="J10">
+        <v>38.04715366316368</v>
+      </c>
+      <c r="K10">
+        <v>1.397228726451175</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>inshore</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>37.79291853960898</v>
+      </c>
+      <c r="D11">
+        <v>36.66720428144316</v>
+      </c>
+      <c r="E11">
+        <v>37.34850032371691</v>
+      </c>
+      <c r="F11">
+        <v>37.2957907247857</v>
+      </c>
+      <c r="G11">
         <v>36.38131525206952</v>
       </c>
-      <c r="H8">
-        <v>37.097145824324862</v>
-      </c>
-      <c r="I8">
+      <c r="H11">
+        <v>37.09714582432486</v>
+      </c>
+      <c r="I11">
         <v>36.38131525206952</v>
       </c>
-      <c r="J8">
-        <v>37.792918539608984</v>
-      </c>
-      <c r="K8">
+      <c r="J11">
+        <v>37.79291853960898</v>
+      </c>
+      <c r="K11">
         <v>1.411603287539464</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>38.047153663163677</v>
-      </c>
-      <c r="D9">
-        <v>37.228461142063779</v>
-      </c>
-      <c r="E9">
-        <v>37.780054589978491</v>
-      </c>
-      <c r="F9">
-        <v>37.696459174119347</v>
-      </c>
-      <c r="G9">
-        <v>36.649924936712502</v>
-      </c>
-      <c r="H9">
-        <v>37.48041070120756</v>
-      </c>
-      <c r="I9">
-        <v>36.649924936712502</v>
-      </c>
-      <c r="J9">
-        <v>38.047153663163677</v>
-      </c>
-      <c r="K9">
-        <v>1.3972287264511749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>38.477834795742183</v>
-      </c>
-      <c r="D10">
-        <v>36.633899209536899</v>
-      </c>
-      <c r="E10">
-        <v>37.60255975394837</v>
-      </c>
-      <c r="F10">
-        <v>38.723469644412077</v>
-      </c>
-      <c r="G10">
-        <v>35.980249965473888</v>
-      </c>
-      <c r="H10">
-        <v>37.483602673822681</v>
-      </c>
-      <c r="I10">
-        <v>35.980249965473888</v>
-      </c>
-      <c r="J10">
-        <v>38.723469644412077</v>
-      </c>
-      <c r="K10">
-        <v>2.7432196789381891</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>38.970149949214552</v>
-      </c>
-      <c r="D11">
-        <v>37.04835201362387</v>
-      </c>
-      <c r="E11">
-        <v>37.711294834503427</v>
-      </c>
-      <c r="F11">
-        <v>38.01063106785098</v>
-      </c>
-      <c r="G11">
-        <v>36.327200199413653</v>
-      </c>
-      <c r="H11">
-        <v>37.6135256129213</v>
-      </c>
-      <c r="I11">
-        <v>36.327200199413653</v>
-      </c>
-      <c r="J11">
-        <v>38.970149949214552</v>
-      </c>
-      <c r="K11">
-        <v>2.6429497498008989</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K11">
-    <sortCondition ref="C1:C11"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>